--- a/FINAL/old run/output/03_10.xlsx
+++ b/FINAL/old run/output/03_10.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,6 +440,52 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.04</v>
+      </c>
+      <c r="E4">
+        <v>0.92</v>
+      </c>
+      <c r="F4">
+        <v>0.92</v>
+      </c>
+      <c r="G4">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>0.03</v>
+      </c>
+      <c r="E5">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
